--- a/outputs_report/Report_tables_part1(3).xlsx
+++ b/outputs_report/Report_tables_part1(3).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D67B223-DDD3-43FD-9506-D737185D081C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840D2085-FFB8-47C7-9082-9D00B4E697B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="196">
   <si>
     <t>AR1</t>
   </si>
@@ -533,11 +533,6 @@
 (2,000 simulations; 63 years in each simulation)</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes: 
-1. Adjustments are made to the quarterly parameters estimated with historical data to ensure the simulated results for annual data (converted from simulated quarterly data) are consistent with the target assumptions for annual data. The variables that have been adjusted and their historical-data based estimates (all for quarterly data) are expected GDP growth in expansion (0.95%), GDP growth in recession (-0.55%), expected stock return in expansion (3.2%), expected stock return in recession (-1.4%), expected bond return (1.6%), standard deviation of bond return (5.1%). (Historical bond returns are for long-term corporate bond)  
-3. The target annual GDP growth is obtained from the 30-year projection of potential growth GDP made by CBO (2017). The target assumptions on annual stock and bond returns are generally consistent with the capital market assumptions used in Mennis, et. al (2017).  </t>
-  </si>
-  <si>
     <t>Standard Deviation</t>
   </si>
   <si>
@@ -678,23 +673,68 @@
 （0.004）</t>
   </si>
   <si>
-    <t>0.033
-（0.008）</t>
-  </si>
-  <si>
     <t>0.003
 （0.001）</t>
   </si>
   <si>
     <t>0.0127
 （0.003）</t>
+  </si>
+  <si>
+    <t>0.0033
+（0.001）</t>
+  </si>
+  <si>
+    <t>Estimation results of Markov-switching models for quarterly real stock returns</t>
+  </si>
+  <si>
+    <t>Stock return
+(real)</t>
+  </si>
+  <si>
+    <t>Bond return
+(real)</t>
+  </si>
+  <si>
+    <t>2.1%
+(8.8%)</t>
+  </si>
+  <si>
+    <t>-3.00%
+(-11.4%)</t>
+  </si>
+  <si>
+    <t>Target expected geometric mean of annual nominal stock return is 6.7% (assuming 2% inflation)
+Target standard deviation of stock return is 17%</t>
+  </si>
+  <si>
+    <t>Target expected geometric mean of annual nominal bond return is 3.6% (assuming 2% inflation)
+Target standard deviation of annual bond return is 4%</t>
+  </si>
+  <si>
+    <t>7.2%
+(14.4%)</t>
+  </si>
+  <si>
+    <t>12.2%
+(24.4%)</t>
+  </si>
+  <si>
+    <t>0.4%
+(1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: 
+1. Adjustments are made to the quarterly parameters estimated with historical data to ensure the simulated results for annual data (converted from simulated quarterly data) are consistent with the target assumptions for annual data. The variables that have been adjusted and their historical-data based estimates (all for quarterly data) are expected GDP growth in expansion (0.95%), GDP growth in recession (-0.55%), expected stock return in expansion (2.4%), expected stock return in recession (-2.7%), expected bond return (1.6%), standard deviation of bond return (5.1%). (Historical bond returns are for long-term corporate bond)  
+3. The target annual GDP growth is obtained from the 30-year projection of potential growth GDP made by CBO (2017). The target assumptions on annual stock and bond returns are generally consistent with the capital market assumptions used in Mennis, et. al (2017).  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
@@ -874,12 +914,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,6 +1199,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1294,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1775,82 +1818,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="86" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="86" t="s">
         <v>165</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>167</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1902,17 +1945,17 @@
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
@@ -1948,7 +1991,7 @@
       <c r="C4" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="134" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="5"/>
@@ -1958,7 +2001,7 @@
       <c r="G4" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="134" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="5"/>
@@ -1972,7 +2015,7 @@
       <c r="C5" s="15">
         <v>0.32</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="5"/>
       <c r="F5" s="14" t="s">
         <v>34</v>
@@ -1980,7 +2023,7 @@
       <c r="G5" s="36">
         <v>0.32</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -1992,7 +2035,7 @@
       <c r="C6" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="5"/>
       <c r="F6" s="14" t="s">
         <v>36</v>
@@ -2000,7 +2043,7 @@
       <c r="G6" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H6" s="133"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
@@ -2012,7 +2055,7 @@
       <c r="C7" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="5"/>
       <c r="F7" s="14" t="s">
         <v>35</v>
@@ -2020,7 +2063,7 @@
       <c r="G7" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="134"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
@@ -2032,7 +2075,7 @@
       <c r="C8" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="5"/>
       <c r="F8" s="14" t="s">
         <v>37</v>
@@ -2040,7 +2083,7 @@
       <c r="G8" s="15">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H8" s="133"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
@@ -2064,7 +2107,7 @@
       <c r="C10" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="134" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="5"/>
@@ -2074,7 +2117,7 @@
       <c r="G10" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H10" s="133" t="s">
+      <c r="H10" s="134" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="5"/>
@@ -2088,7 +2131,7 @@
       <c r="C11" s="15">
         <v>-1.4E-2</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="5"/>
       <c r="F11" s="14" t="s">
         <v>39</v>
@@ -2096,7 +2139,7 @@
       <c r="G11" s="15">
         <v>-1.4E-2</v>
       </c>
-      <c r="H11" s="133"/>
+      <c r="H11" s="134"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
@@ -2108,7 +2151,7 @@
       <c r="C12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
         <v>40</v>
@@ -2116,7 +2159,7 @@
       <c r="G12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H12" s="133"/>
+      <c r="H12" s="134"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
@@ -2128,7 +2171,7 @@
       <c r="C13" s="16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="5"/>
       <c r="F13" s="14" t="s">
         <v>41</v>
@@ -2136,7 +2179,7 @@
       <c r="G13" s="16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H13" s="133"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -2160,7 +2203,7 @@
       <c r="C15" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="134" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="5"/>
@@ -2170,7 +2213,7 @@
       <c r="G15" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H15" s="134" t="s">
+      <c r="H15" s="135" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="5"/>
@@ -2184,7 +2227,7 @@
       <c r="C16" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="5"/>
       <c r="F16" s="14" t="s">
         <v>43</v>
@@ -2192,7 +2235,7 @@
       <c r="G16" s="16">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="H16" s="134"/>
+      <c r="H16" s="135"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
@@ -2780,7 +2823,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,14 +2856,14 @@
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="B4" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
@@ -2828,13 +2871,13 @@
       <c r="A5" s="94"/>
       <c r="B5" s="95"/>
       <c r="C5" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="87" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="87" t="s">
         <v>72</v>
@@ -2848,7 +2891,7 @@
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
@@ -2861,7 +2904,7 @@
     <row r="7" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94"/>
       <c r="B7" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="6">
         <v>62</v>
@@ -2884,7 +2927,7 @@
     <row r="8" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="94"/>
       <c r="B8" s="94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6">
         <v>62</v>
@@ -2907,7 +2950,7 @@
     <row r="9" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="94"/>
       <c r="B9" s="98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="21">
         <v>62</v>
@@ -2930,7 +2973,7 @@
     <row r="10" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="94"/>
       <c r="B10" s="95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="99">
         <v>62</v>
@@ -2953,7 +2996,7 @@
     <row r="11" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
       <c r="B11" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="102"/>
       <c r="D11" s="103"/>
@@ -2966,7 +3009,7 @@
     <row r="12" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94"/>
       <c r="B12" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6">
         <v>251</v>
@@ -2989,7 +3032,7 @@
     <row r="13" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
       <c r="B13" s="94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="6">
         <v>251</v>
@@ -3012,7 +3055,7 @@
     <row r="14" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94"/>
       <c r="B14" s="98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="6">
         <v>251</v>
@@ -3035,7 +3078,7 @@
     <row r="15" spans="1:9" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94"/>
       <c r="B15" s="95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="99">
         <v>251</v>
@@ -3058,7 +3101,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="93"/>
@@ -3103,7 +3146,7 @@
   <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,40 +3161,40 @@
   <sheetData>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="108"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -3168,10 +3211,10 @@
     </row>
     <row r="4" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3350,9 @@
       <c r="D8" s="9">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9">
@@ -3376,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:O8"/>
+  <dimension ref="A2:O12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,40 +3439,40 @@
   <sheetData>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
+      <c r="B2" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="109"/>
       <c r="K3" s="7"/>
       <c r="L3" s="1" t="s">
         <v>0</v>
@@ -3444,7 +3489,7 @@
     </row>
     <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3481,16 +3526,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="9">
         <v>0.11899999999999999</v>
@@ -3509,13 +3554,13 @@
     <row r="6" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="9">
-        <v>3.2000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>-1.4E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E6" s="9">
         <v>4.8999999999999998E-3</v>
@@ -3553,15 +3598,37 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5">
+        <f>0.0033^0.5</f>
+        <v>5.7445626465380289E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f>0.0115^0.5</f>
+        <v>0.10723805294763608</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>0.0049^0.5</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="F10">
+        <f>0.0142^0.5</f>
+        <v>0.11916375287812986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>1.03^4</f>
+        <v>1.1255088099999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3580,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA232DBE-4E24-4049-A508-3D4A441B3502}">
   <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,40 +3663,40 @@
   <sheetData>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="108" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="111"/>
+      <c r="G3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="109"/>
       <c r="K3" s="7"/>
       <c r="L3" s="1" t="s">
         <v>0</v>
@@ -3646,7 +3713,7 @@
     </row>
     <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="89" t="s">
         <v>23</v>
       </c>
@@ -3689,10 +3756,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" s="9">
         <v>0.106</v>
@@ -3711,13 +3778,13 @@
     <row r="6" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="9">
-        <v>2.4E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>-2.7E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E6" s="9">
         <v>4.7000000000000002E-3</v>
@@ -3757,8 +3824,14 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <f>0.003^0.5</f>
+        <v>5.4772255750516613E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f>0.0127^0.5</f>
+        <v>0.11269427669584645</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -3782,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,33 +3869,33 @@
   <sheetData>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="113" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="113" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="114" t="s">
         <v>134</v>
       </c>
       <c r="J3" s="57"/>
@@ -3830,8 +3903,8 @@
     </row>
     <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="11" t="s">
         <v>124</v>
       </c>
@@ -3847,29 +3920,29 @@
       <c r="H4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="116"/>
+      <c r="I4" s="117"/>
       <c r="J4" s="57"/>
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="71"/>
       <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="9">
         <v>10</v>
@@ -3955,16 +4028,16 @@
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="71"/>
       <c r="K9" s="26"/>
     </row>
@@ -4027,7 +4100,7 @@
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" ref="C11:C13" si="1">K11</f>
@@ -4218,32 +4291,32 @@
     </row>
     <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="113" t="s">
+      <c r="B17" s="112"/>
+      <c r="C17" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="113" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="114" t="s">
         <v>134</v>
       </c>
       <c r="J17" s="57"/>
@@ -4251,8 +4324,8 @@
     </row>
     <row r="18" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="107"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="11" t="s">
         <v>124</v>
       </c>
@@ -4268,7 +4341,7 @@
       <c r="H18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="116"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="57"/>
       <c r="K18" s="26"/>
     </row>
@@ -4279,109 +4352,109 @@
       </c>
       <c r="C19" s="16">
         <f>K19</f>
-        <v>0.10361095537936856</v>
+        <v>6.8321383074647135E-2</v>
       </c>
       <c r="D19" s="16">
         <f>M19</f>
-        <v>7.1391375958434186E-2</v>
+        <v>3.4633012315472368E-2</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" ref="E19:E22" si="8">N19</f>
-        <v>9.4060909335626122E-2</v>
+        <v>5.7220390337292648E-2</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" ref="F19:F22" si="9">O19</f>
-        <v>0.10915892800675997</v>
+        <v>7.2448608568761397E-2</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ref="G19:G22" si="10">P19</f>
-        <v>0.12491717739787672</v>
+        <v>8.8174413407452162E-2</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" ref="H19:H22" si="11">Q19</f>
-        <v>0.14602850638300593</v>
+        <v>0.10931026393116583</v>
       </c>
       <c r="I19" s="27">
         <f>L19</f>
-        <v>0.40379999999999999</v>
+        <v>0.43020000000000003</v>
       </c>
       <c r="J19" s="72"/>
       <c r="K19">
-        <v>0.10361095537936856</v>
+        <v>6.8321383074647135E-2</v>
       </c>
       <c r="L19">
-        <v>0.40379999999999999</v>
+        <v>0.43020000000000003</v>
       </c>
       <c r="M19">
-        <v>7.1391375958434186E-2</v>
+        <v>3.4633012315472368E-2</v>
       </c>
       <c r="N19">
-        <v>9.4060909335626122E-2</v>
+        <v>5.7220390337292648E-2</v>
       </c>
       <c r="O19">
-        <v>0.10915892800675997</v>
+        <v>7.2448608568761397E-2</v>
       </c>
       <c r="P19">
-        <v>0.12491717739787672</v>
+        <v>8.8174413407452162E-2</v>
       </c>
       <c r="Q19">
-        <v>0.14602850638300593</v>
+        <v>0.10931026393116583</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="16">
         <f t="shared" ref="C20:C22" si="12">K20</f>
-        <v>0.15671132168063609</v>
+        <v>0.16304865057219206</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ref="D20:D22" si="13">M20</f>
-        <v>0.14406074705632738</v>
+        <v>0.1430567502331124</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="8"/>
-        <v>0.16022082355905881</v>
+        <v>0.1590313793240444</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="9"/>
-        <v>0.17219167396714474</v>
+        <v>0.17090650311416938</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="10"/>
-        <v>0.18462651990350848</v>
+        <v>0.18311120699878847</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="11"/>
-        <v>0.20399436980682509</v>
+        <v>0.20222521363483711</v>
       </c>
       <c r="I20" s="27">
         <f t="shared" ref="I20:I22" si="14">L20</f>
-        <v>0.18559999999999999</v>
+        <v>0.3306</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20">
-        <v>0.15671132168063609</v>
+        <v>0.16304865057219206</v>
       </c>
       <c r="L20">
-        <v>0.18559999999999999</v>
+        <v>0.3306</v>
       </c>
       <c r="M20">
-        <v>0.14406074705632738</v>
+        <v>0.1430567502331124</v>
       </c>
       <c r="N20">
-        <v>0.16022082355905881</v>
+        <v>0.1590313793240444</v>
       </c>
       <c r="O20">
-        <v>0.17219167396714474</v>
+        <v>0.17090650311416938</v>
       </c>
       <c r="P20">
-        <v>0.18462651990350848</v>
+        <v>0.18311120699878847</v>
       </c>
       <c r="Q20">
-        <v>0.20399436980682509</v>
+        <v>0.20222521363483711</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,53 +4464,53 @@
       </c>
       <c r="C21" s="17">
         <f t="shared" si="12"/>
-        <v>-0.39375921343445103</v>
+        <v>-0.26099800494035891</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="13"/>
-        <v>-0.55980004675629502</v>
+        <v>-0.564423462530661</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="8"/>
-        <v>-0.21142286967326024</v>
+        <v>-0.22072571873490096</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" si="9"/>
-        <v>1.7823354381452897E-2</v>
+        <v>8.4150116168340561E-3</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" si="10"/>
-        <v>0.25305308758503819</v>
+        <v>0.23988558105991464</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="11"/>
-        <v>0.61589010879890771</v>
+        <v>0.59770489027670737</v>
       </c>
       <c r="I21" s="27">
         <f t="shared" si="14"/>
-        <v>0.1138</v>
+        <v>0.2112</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21">
-        <v>-0.39375921343445103</v>
+        <v>-0.26099800494035891</v>
       </c>
       <c r="L21">
-        <v>0.1138</v>
+        <v>0.2112</v>
       </c>
       <c r="M21">
-        <v>-0.55980004675629502</v>
+        <v>-0.564423462530661</v>
       </c>
       <c r="N21">
-        <v>-0.21142286967326024</v>
+        <v>-0.22072571873490096</v>
       </c>
       <c r="O21">
-        <v>1.7823354381452897E-2</v>
+        <v>8.4150116168340561E-3</v>
       </c>
       <c r="P21">
-        <v>0.25305308758503819</v>
+        <v>0.23988558105991464</v>
       </c>
       <c r="Q21">
-        <v>0.61589010879890771</v>
+        <v>0.59770489027670737</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,53 +4520,53 @@
       </c>
       <c r="C22" s="17">
         <f t="shared" si="12"/>
-        <v>0.12556966109173073</v>
+        <v>1.7261853663295135E-2</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="13"/>
-        <v>-0.65353566352602388</v>
+        <v>-0.60603543937988857</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" si="8"/>
-        <v>-0.27599607268647997</v>
+        <v>-0.19805005180278967</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" si="9"/>
-        <v>9.5360022085102081E-2</v>
+        <v>0.19585511467069949</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" si="10"/>
-        <v>0.61047043379809773</v>
+        <v>0.74264293469139475</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="11"/>
-        <v>1.6099757864094923</v>
+        <v>1.8116099108953649</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" si="14"/>
-        <v>0.51700000000000002</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="J22" s="72"/>
       <c r="K22">
-        <v>0.12556966109173073</v>
+        <v>1.7261853663295135E-2</v>
       </c>
       <c r="L22">
-        <v>0.51700000000000002</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="M22">
-        <v>-0.65353566352602388</v>
+        <v>-0.60603543937988857</v>
       </c>
       <c r="N22">
-        <v>-0.27599607268647997</v>
+        <v>-0.19805005180278967</v>
       </c>
       <c r="O22">
-        <v>9.5360022085102081E-2</v>
+        <v>0.19585511467069949</v>
       </c>
       <c r="P22">
-        <v>0.61047043379809773</v>
+        <v>0.74264293469139475</v>
       </c>
       <c r="Q22">
-        <v>1.6099757864094923</v>
+        <v>1.8116099108953649</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="50" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4522,32 +4595,32 @@
     </row>
     <row r="25" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="113" t="s">
+      <c r="B26" s="112"/>
+      <c r="C26" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="113" t="s">
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="114" t="s">
         <v>134</v>
       </c>
       <c r="J26" s="57"/>
@@ -4555,8 +4628,8 @@
     </row>
     <row r="27" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="11" t="s">
         <v>124</v>
       </c>
@@ -4572,7 +4645,7 @@
       <c r="H27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="116"/>
+      <c r="I27" s="117"/>
       <c r="J27" s="57"/>
       <c r="K27" s="26"/>
     </row>
@@ -4583,109 +4656,109 @@
       </c>
       <c r="C28" s="16">
         <f>K28</f>
-        <v>6.5553415906824078E-2</v>
+        <v>3.0263843602102648E-2</v>
       </c>
       <c r="D28" s="16">
         <f>M28</f>
-        <v>4.3624943823150991E-2</v>
+        <v>7.9661736268038727E-3</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" ref="E28:E31" si="15">N28</f>
-        <v>5.6991371575956309E-2</v>
+        <v>2.1271773948206847E-2</v>
       </c>
       <c r="F28" s="16">
         <f t="shared" ref="F28:F31" si="16">O28</f>
-        <v>6.5808776482831122E-2</v>
+        <v>2.9945697806857373E-2</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ref="G28:G31" si="17">P28</f>
-        <v>7.4921163632362925E-2</v>
+        <v>3.9024914271163766E-2</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" ref="H28:H31" si="18">Q28</f>
-        <v>8.7562901660437939E-2</v>
+        <v>5.2433303022170544E-2</v>
       </c>
       <c r="I28" s="70">
         <f>L28</f>
-        <v>0.49330000000000002</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="J28" s="73"/>
       <c r="K28">
-        <v>6.5553415906824078E-2</v>
+        <v>3.0263843602102648E-2</v>
       </c>
       <c r="L28">
-        <v>0.49330000000000002</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="M28">
-        <v>4.3624943823150991E-2</v>
+        <v>7.9661736268038727E-3</v>
       </c>
       <c r="N28">
-        <v>5.6991371575956309E-2</v>
+        <v>2.1271773948206847E-2</v>
       </c>
       <c r="O28">
-        <v>6.5808776482831122E-2</v>
+        <v>2.9945697806857373E-2</v>
       </c>
       <c r="P28">
-        <v>7.4921163632362925E-2</v>
+        <v>3.9024914271163766E-2</v>
       </c>
       <c r="Q28">
-        <v>8.7562901660437939E-2</v>
+        <v>5.2433303022170544E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="16">
         <f t="shared" ref="C29:C31" si="19">K29</f>
-        <v>9.6320844630497005E-2</v>
+        <v>0.10563171312312003</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" ref="D29:D31" si="20">M29</f>
-        <v>9.1101250947868376E-2</v>
+        <v>9.1081702044757559E-2</v>
       </c>
       <c r="E29" s="16">
         <f t="shared" si="15"/>
-        <v>9.9869017757115666E-2</v>
+        <v>9.9874268135689948E-2</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="16"/>
-        <v>0.1064011381672044</v>
+        <v>0.10661509015736825</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="17"/>
-        <v>0.11354558088574518</v>
+        <v>0.11356253568250765</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="18"/>
-        <v>0.12356274041515744</v>
+        <v>0.12331667793279737</v>
       </c>
       <c r="I29" s="70">
         <f t="shared" ref="I29:I31" si="21">L29</f>
-        <v>0.14199999999999999</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="J29" s="73"/>
       <c r="K29">
-        <v>9.6320844630497005E-2</v>
+        <v>0.10563171312312003</v>
       </c>
       <c r="L29">
-        <v>0.14199999999999999</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="M29">
-        <v>9.1101250947868376E-2</v>
+        <v>9.1081702044757559E-2</v>
       </c>
       <c r="N29">
-        <v>9.9869017757115666E-2</v>
+        <v>9.9874268135689948E-2</v>
       </c>
       <c r="O29">
-        <v>0.1064011381672044</v>
+        <v>0.10661509015736825</v>
       </c>
       <c r="P29">
-        <v>0.11354558088574518</v>
+        <v>0.11356253568250765</v>
       </c>
       <c r="Q29">
-        <v>0.12356274041515744</v>
+        <v>0.12331667793279737</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,53 +4768,53 @@
       </c>
       <c r="C30" s="17">
         <f t="shared" si="19"/>
-        <v>0.59511685935455705</v>
+        <v>0.24723936664807256</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="20"/>
-        <v>-0.27012314996320186</v>
+        <v>-0.27394578022677002</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="15"/>
-        <v>-1.1457116177368697E-3</v>
+        <v>-5.7393562132741359E-4</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" si="16"/>
-        <v>0.19010189242551834</v>
+        <v>0.19248262011327585</v>
       </c>
       <c r="G30" s="17">
         <f t="shared" si="17"/>
-        <v>0.39221783058027893</v>
+        <v>0.40650606121017596</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="18"/>
-        <v>0.69699592458608917</v>
+        <v>0.71458359030326335</v>
       </c>
       <c r="I30" s="70">
         <f t="shared" si="21"/>
-        <v>0.9093</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="J30" s="73"/>
       <c r="K30">
-        <v>0.59511685935455705</v>
+        <v>0.24723936664807256</v>
       </c>
       <c r="L30">
-        <v>0.9093</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="M30">
-        <v>-0.27012314996320186</v>
+        <v>-0.27394578022677002</v>
       </c>
       <c r="N30">
-        <v>-1.1457116177368697E-3</v>
+        <v>-5.7393562132741359E-4</v>
       </c>
       <c r="O30">
-        <v>0.19010189242551834</v>
+        <v>0.19248262011327585</v>
       </c>
       <c r="P30">
-        <v>0.39221783058027893</v>
+        <v>0.40650606121017596</v>
       </c>
       <c r="Q30">
-        <v>0.69699592458608917</v>
+        <v>0.71458359030326335</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4751,53 +4824,53 @@
       </c>
       <c r="C31" s="17">
         <f t="shared" si="19"/>
-        <v>0.63193703796576051</v>
+        <v>0.55305842153773188</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="20"/>
-        <v>-0.77465178889245245</v>
+        <v>-0.76198410886381773</v>
       </c>
       <c r="E31" s="17">
         <f t="shared" si="15"/>
-        <v>-0.46254905094589238</v>
+        <v>-0.45243952392068876</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" si="16"/>
-        <v>-0.15602928488355383</v>
+        <v>-0.15293037742587035</v>
       </c>
       <c r="G31" s="17">
         <f t="shared" si="17"/>
-        <v>0.21759826456773934</v>
+        <v>0.20833044584169413</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="18"/>
-        <v>1.0976953780626306</v>
+        <v>1.0798120435824339</v>
       </c>
       <c r="I31" s="70">
         <f t="shared" si="21"/>
-        <v>0.88219999999999998</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J31" s="73"/>
       <c r="K31">
-        <v>0.63193703796576051</v>
+        <v>0.55305842153773188</v>
       </c>
       <c r="L31">
-        <v>0.88219999999999998</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="M31">
-        <v>-0.77465178889245245</v>
+        <v>-0.76198410886381773</v>
       </c>
       <c r="N31">
-        <v>-0.46254905094589238</v>
+        <v>-0.45243952392068876</v>
       </c>
       <c r="O31">
-        <v>-0.15602928488355383</v>
+        <v>-0.15293037742587035</v>
       </c>
       <c r="P31">
-        <v>0.21759826456773934</v>
+        <v>0.20833044584169413</v>
       </c>
       <c r="Q31">
-        <v>1.0976953780626306</v>
+        <v>1.0798120435824339</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,6 +4922,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:H26"/>
@@ -4863,9 +4939,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4875,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196F361E-FFA9-4D39-A4D7-75BA43ABD3BB}">
   <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -4890,12 +4963,12 @@
   <sheetData>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
-      <c r="B2" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="26"/>
       <c r="G2" s="77"/>
       <c r="H2" s="26"/>
@@ -4908,7 +4981,7 @@
         <v>133</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>134</v>
@@ -4920,12 +4993,12 @@
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
-      <c r="B4" s="122" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="B4" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="71"/>
       <c r="G4" s="79"/>
       <c r="H4" s="71"/>
@@ -4934,7 +5007,7 @@
     <row r="5" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="9">
         <v>10</v>
@@ -4959,7 +5032,7 @@
     <row r="6" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="9">
         <v>10</v>
@@ -5033,12 +5106,12 @@
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="82"/>
       <c r="H9" s="21"/>
       <c r="I9" s="26"/>
@@ -5093,7 +5166,7 @@
     <row r="11" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="16">
         <f>I11</f>
@@ -5138,12 +5211,12 @@
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5196,7 +5269,7 @@
     <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="16">
         <f>I14</f>
@@ -5243,7 +5316,7 @@
     <row r="15" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="17">
         <f>I15</f>
@@ -5289,12 +5362,12 @@
     </row>
     <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="82"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5347,7 +5420,7 @@
     <row r="18" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="16">
         <f>I18</f>
@@ -5394,7 +5467,7 @@
     <row r="19" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="17">
         <f>I19</f>
@@ -5497,10 +5570,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,7 +5589,7 @@
     <col min="10" max="10" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -5529,45 +5602,45 @@
       <c r="J1" s="26"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
       <c r="J2" s="26"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="47"/>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="131"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="133" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="41"/>
       <c r="F4" s="44" t="s">
         <v>96</v>
@@ -5576,14 +5649,14 @@
         <v>97</v>
       </c>
       <c r="H4" s="25"/>
-      <c r="I4" s="130"/>
+      <c r="I4" s="131"/>
       <c r="J4" s="26"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="124" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="40" t="s">
@@ -5597,16 +5670,16 @@
         <v>99</v>
       </c>
       <c r="H5" s="43"/>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="130" t="s">
         <v>122</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="124"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="40" t="s">
         <v>100</v>
       </c>
@@ -5618,14 +5691,14 @@
         <v>109</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="129"/>
+      <c r="I6" s="130"/>
       <c r="J6" s="26"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="105"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="45" t="s">
         <v>101</v>
       </c>
@@ -5637,79 +5710,79 @@
         <v>110</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="129"/>
+      <c r="I7" s="130"/>
       <c r="J7" s="26"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="123" t="s">
-        <v>118</v>
+      <c r="C8" s="124" t="s">
+        <v>186</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="42" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="129" t="s">
-        <v>120</v>
+      <c r="I8" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="105"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="52" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="H9" s="39"/>
-      <c r="I9" s="129"/>
+      <c r="I9" s="130"/>
       <c r="J9" s="26"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="123" t="s">
-        <v>119</v>
+      <c r="C10" s="124" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="42" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="H10" s="39"/>
-      <c r="I10" s="126" t="s">
-        <v>121</v>
+      <c r="I10" s="127" t="s">
+        <v>191</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="19" t="s">
         <v>103</v>
       </c>
@@ -5721,14 +5794,15 @@
         <v>116</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="26"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="104"/>
+    </row>
+    <row r="12" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="105"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="48" t="s">
         <v>105</v>
       </c>
@@ -5738,26 +5812,26 @@
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="128"/>
+      <c r="I12" s="129"/>
       <c r="J12" s="26"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
+      <c r="C13" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="26"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5770,7 +5844,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5783,7 +5857,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5852,32 +5926,32 @@
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
       <c r="J2" s="26"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="47"/>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="131"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="133" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="26"/>
@@ -5886,8 +5960,8 @@
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="57"/>
       <c r="F4" s="61" t="s">
         <v>96</v>
@@ -5896,14 +5970,14 @@
         <v>97</v>
       </c>
       <c r="H4" s="58"/>
-      <c r="I4" s="130"/>
+      <c r="I4" s="131"/>
       <c r="J4" s="26"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="124" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="59" t="s">
@@ -5917,7 +5991,7 @@
         <v>99</v>
       </c>
       <c r="H5" s="43"/>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="130" t="s">
         <v>122</v>
       </c>
       <c r="J5" s="26"/>
@@ -5926,7 +6000,7 @@
     <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="124"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="59" t="s">
         <v>100</v>
       </c>
@@ -5938,14 +6012,14 @@
         <v>109</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="129"/>
+      <c r="I6" s="130"/>
       <c r="J6" s="26"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="105"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="60" t="s">
         <v>101</v>
       </c>
@@ -5957,14 +6031,14 @@
         <v>110</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="129"/>
+      <c r="I7" s="130"/>
       <c r="J7" s="26"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="59" t="s">
@@ -5978,7 +6052,7 @@
         <v>112</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="130" t="s">
         <v>120</v>
       </c>
       <c r="J8" s="26"/>
@@ -5987,7 +6061,7 @@
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="105"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="60" t="s">
         <v>103</v>
       </c>
@@ -5999,14 +6073,14 @@
         <v>114</v>
       </c>
       <c r="H9" s="39"/>
-      <c r="I9" s="129"/>
+      <c r="I9" s="130"/>
       <c r="J9" s="26"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="124" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -6020,7 +6094,7 @@
         <v>115</v>
       </c>
       <c r="H10" s="39"/>
-      <c r="I10" s="126" t="s">
+      <c r="I10" s="127" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="26"/>
@@ -6029,7 +6103,7 @@
     <row r="11" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="124"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="19" t="s">
         <v>103</v>
       </c>
@@ -6041,14 +6115,14 @@
         <v>116</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="26"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="105"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="48" t="s">
         <v>105</v>
       </c>
@@ -6058,22 +6132,22 @@
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="128"/>
+      <c r="I12" s="129"/>
       <c r="J12" s="26"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="26"/>
       <c r="K13" s="5"/>
     </row>
